--- a/reports/usersList.xlsx
+++ b/reports/usersList.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="34">
   <si>
     <t>USER LIST REPORT</t>
   </si>
@@ -41,19 +41,82 @@
     <t>Status</t>
   </si>
   <si>
-    <t>CHEERY MAE LABADAN</t>
+    <t>Pisti Giatay</t>
+  </si>
+  <si>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>A0002</t>
+  </si>
+  <si>
+    <t>2024-06-11</t>
+  </si>
+  <si>
+    <t>Active</t>
+  </si>
+  <si>
+    <t>thomas edison</t>
   </si>
   <si>
     <t>Cashier</t>
   </si>
   <si>
+    <t>C0006</t>
+  </si>
+  <si>
+    <t>1970-01-01</t>
+  </si>
+  <si>
+    <t>test tee</t>
+  </si>
+  <si>
+    <t>C0005</t>
+  </si>
+  <si>
+    <t>heidi Caones</t>
+  </si>
+  <si>
+    <t>C0004</t>
+  </si>
+  <si>
+    <t>Suspended</t>
+  </si>
+  <si>
+    <t>Rey Garren Balingit</t>
+  </si>
+  <si>
+    <t>C0003</t>
+  </si>
+  <si>
+    <t>lou zeus baculio</t>
+  </si>
+  <si>
+    <t>C0002</t>
+  </si>
+  <si>
+    <t>2024-06-14</t>
+  </si>
+  <si>
+    <t>Jomar Otoc</t>
+  </si>
+  <si>
+    <t>A0001</t>
+  </si>
+  <si>
+    <t>Julia Samonte</t>
+  </si>
+  <si>
     <t>C0001</t>
   </si>
   <si>
-    <t>2024-04-25</t>
-  </si>
-  <si>
-    <t>Active</t>
+    <t>2024-04-30</t>
+  </si>
+  <si>
+    <t>Admin Admin</t>
+  </si>
+  <si>
+    <t>2024-06-03</t>
   </si>
 </sst>
 </file>
@@ -432,7 +495,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="G5" sqref="G5"/>
@@ -441,12 +504,12 @@
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="4" max="4" width="6.856" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="24.565" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="25.708" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="11.569" bestFit="true" customWidth="true" style="0"/>
     <col min="7" max="7" width="22.28" bestFit="true" customWidth="true" style="0"/>
     <col min="8" max="8" width="20.995" bestFit="true" customWidth="true" style="0"/>
     <col min="9" max="9" width="15.139" bestFit="true" customWidth="true" style="0"/>
-    <col min="10" max="10" width="10.426" bestFit="true" customWidth="true" style="0"/>
+    <col min="10" max="10" width="13.997" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
     <row r="5" spans="1:10">
@@ -490,13 +553,181 @@
       <c r="G8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H8" s="2">
-        <v>121212</v>
-      </c>
+      <c r="H8" s="2"/>
       <c r="I8" s="2" t="s">
         <v>11</v>
       </c>
       <c r="J8" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="D9" s="2">
+        <v>2</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="D10" s="2">
+        <v>3</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="D11" s="2">
+        <v>4</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="D12" s="2">
+        <v>5</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="D13" s="2">
+        <v>6</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H13" s="2">
+        <v>9012321312</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="D14" s="2">
+        <v>7</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="D15" s="2">
+        <v>8</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="2">
+        <v>9012321312</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="D16" s="2">
+        <v>9</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J16" s="2" t="s">
         <v>12</v>
       </c>
     </row>
